--- a/xlsx-templates/cost-3.xlsx
+++ b/xlsx-templates/cost-3.xlsx
@@ -1529,6 +1529,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1551,9 +1554,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1673,12 +1673,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,11 +1712,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1730,15 +1739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,18 +1748,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1774,24 +1792,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2222,17 +2222,17 @@
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2245,38 +2245,38 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2290,10 +2290,10 @@
       <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="74" t="s">
         <v>71</v>
       </c>
@@ -2305,8 +2305,8 @@
       <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -2316,8 +2316,8 @@
       <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -2327,123 +2327,118 @@
       <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2460,6 +2455,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2979,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -3012,51 +3012,51 @@
       <c r="O1" s="82"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148" t="s">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="151"/>
+      <c r="O3" s="144"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="140"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="58" t="s">
         <v>124</v>
       </c>
@@ -3084,8 +3084,8 @@
       <c r="M4" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="150"/>
-      <c r="O4" s="139"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="145"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
@@ -3100,8 +3100,8 @@
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="139"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="145"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
@@ -3116,8 +3116,8 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="139"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="145"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
@@ -3132,14 +3132,14 @@
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="139"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="145"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="60"/>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
@@ -3150,71 +3150,71 @@
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="139"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="145"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
         <v>134</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="138" t="s">
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="139"/>
+      <c r="O9" s="145"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="147" t="s">
         <v>137</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="144"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
     </row>
     <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="141"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="62"/>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="139"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="145"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="142"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="56"/>
       <c r="D12" s="93" t="s">
         <v>140</v>
@@ -3229,10 +3229,17 @@
       <c r="L12" s="93"/>
       <c r="M12" s="93"/>
       <c r="N12" s="93"/>
-      <c r="O12" s="145"/>
+      <c r="O12" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -3241,13 +3248,6 @@
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>
@@ -3957,38 +3957,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
@@ -4078,84 +4078,75 @@
       <c r="M7" s="111"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="114" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="119"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="126"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="126"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="125"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="F7:G7"/>
@@ -4172,8 +4163,17 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4362,6 +4362,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
@@ -4378,10 +4382,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4408,26 +4408,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4435,14 +4435,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4450,14 +4450,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4465,14 +4465,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4480,14 +4480,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4495,32 +4495,27 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4528,6 +4523,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4555,26 +4555,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4582,14 +4582,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4597,14 +4597,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4612,14 +4612,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4627,14 +4627,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4642,52 +4642,47 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
@@ -4699,6 +4694,11 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/cost-3.xlsx
+++ b/xlsx-templates/cost-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30320" yWindow="460" windowWidth="32980" windowHeight="19440" tabRatio="701" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="5420" yWindow="460" windowWidth="32980" windowHeight="19440" tabRatio="701" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="付款审批表" sheetId="12" state="hidden" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="用章申请表" sheetId="15" state="hidden" r:id="rId11"/>
     <sheet name="费用报销单" sheetId="19" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">费用报销单!$B$1:$O$12</definedName>
+  </definedNames>
   <calcPr calcId="114210" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -615,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费用报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">报销部门：                        年      月      日                      单据及附件共 </t>
     </r>
@@ -695,6 +694,10 @@
   </si>
   <si>
     <t>公司负责人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用报销单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1673,49 +1676,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2977,10 +2980,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2995,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="82" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -3013,7 +3019,7 @@
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="137"/>
       <c r="D2" s="137"/>
@@ -3031,14 +3037,14 @@
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="140" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>129</v>
       </c>
       <c r="D3" s="140"/>
       <c r="E3" s="140" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="140"/>
       <c r="G3" s="140"/>
@@ -3049,7 +3055,7 @@
       <c r="L3" s="140"/>
       <c r="M3" s="140"/>
       <c r="N3" s="142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O3" s="144"/>
     </row>
@@ -3082,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N4" s="143"/>
       <c r="O4" s="145"/>
@@ -3137,7 +3143,7 @@
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="141"/>
       <c r="D8" s="60"/>
@@ -3155,11 +3161,11 @@
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="58"/>
       <c r="D9" s="141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="141"/>
       <c r="F9" s="141"/>
@@ -3171,17 +3177,17 @@
       <c r="L9" s="141"/>
       <c r="M9" s="141"/>
       <c r="N9" s="146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O9" s="145"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="149"/>
       <c r="F10" s="149"/>
@@ -3199,7 +3205,7 @@
       <c r="B11" s="147"/>
       <c r="C11" s="62"/>
       <c r="D11" s="146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="146"/>
       <c r="F11" s="146"/>
@@ -3217,7 +3223,7 @@
       <c r="B12" s="148"/>
       <c r="C12" s="56"/>
       <c r="D12" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
@@ -3250,8 +3256,9 @@
     <mergeCell ref="O3:O8"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15" header="0.2" footer="0.17"/>
-  <pageSetup paperSize="512" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15000000000000002" header="0.2" footer="0.17000000000000004"/>
+  <pageSetup paperSize="28" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -3957,38 +3964,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
@@ -4078,78 +4085,79 @@
       <c r="M7" s="111"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="112" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="124"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="124"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="123"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="123"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -4166,14 +4174,13 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4369,6 +4376,8 @@
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -4380,8 +4389,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/cost-3.xlsx
+++ b/xlsx-templates/cost-3.xlsx
@@ -685,19 +685,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人力行政负责人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司负责人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>财务会计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力行政负责人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司负责人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用报销单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,30 +1532,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1673,15 +1673,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1694,6 +1685,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,11 +1715,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1736,12 +1742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,6 +1750,33 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1757,13 +1784,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1774,27 +1795,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2225,17 +2225,17 @@
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2248,38 +2248,38 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
     </row>
     <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2293,10 +2293,10 @@
       <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="74" t="s">
         <v>71</v>
       </c>
@@ -2308,8 +2308,8 @@
       <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -2319,8 +2319,8 @@
       <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -2330,118 +2330,123 @@
       <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="71" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="71" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2458,11 +2463,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2986,14 +2986,14 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:O10"/>
+      <selection activeCell="D11" sqref="D11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="13" width="2.33203125" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
@@ -3001,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -3018,51 +3018,51 @@
       <c r="O1" s="82"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
     </row>
     <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="142" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="144"/>
+      <c r="O3" s="151"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="139"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="58" t="s">
         <v>124</v>
       </c>
@@ -3090,8 +3090,8 @@
       <c r="M4" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="145"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="139"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
@@ -3106,8 +3106,8 @@
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="145"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="139"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
@@ -3122,8 +3122,8 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="145"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="139"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
@@ -3138,14 +3138,14 @@
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="145"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="139"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="141"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="60"/>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
@@ -3156,74 +3156,74 @@
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="145"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="139"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="58"/>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="146" t="s">
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="145"/>
+      <c r="O9" s="139"/>
     </row>
     <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="141" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="144"/>
+    </row>
+    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="141"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="150"/>
-    </row>
-    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="147"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="145"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="139"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="148"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="56"/>
       <c r="D12" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
@@ -3235,17 +3235,10 @@
       <c r="L12" s="93"/>
       <c r="M12" s="93"/>
       <c r="N12" s="93"/>
-      <c r="O12" s="151"/>
+      <c r="O12" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -3254,6 +3247,13 @@
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="N3:N8"/>
     <mergeCell ref="O3:O8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3964,200 +3964,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111" t="s">
+      <c r="I3" s="115"/>
+      <c r="J3" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111" t="s">
+      <c r="K3" s="115"/>
+      <c r="L3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="111"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="115" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="117"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="114"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="118"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="123"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="121"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="126"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -4165,6 +4165,12 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
     <mergeCell ref="L4:M7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -4175,12 +4181,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4369,6 +4369,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
@@ -4378,17 +4389,6 @@
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,26 +4415,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4442,14 +4442,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4457,14 +4457,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4472,14 +4472,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4487,14 +4487,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4502,27 +4502,32 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4530,11 +4535,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4562,26 +4562,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4589,14 +4589,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4604,14 +4604,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4619,14 +4619,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4634,14 +4634,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4649,47 +4649,52 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
@@ -4701,11 +4706,6 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/cost-3.xlsx
+++ b/xlsx-templates/cost-3.xlsx
@@ -618,33 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">报销部门：                        年      月      日                      单据及附件共 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 页</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报销项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,6 +671,10 @@
   </si>
   <si>
     <t>财务会计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">报销部门：                        </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,14 +884,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="3"/>
@@ -935,7 +904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1351,13 +1320,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,6 +1510,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1554,9 +1535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1673,6 +1651,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1685,9 +1672,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,17 +1699,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1733,15 +1720,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,18 +1729,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1778,23 +1771,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2225,17 +2206,17 @@
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2248,38 +2229,38 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2293,10 +2274,10 @@
       <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="74" t="s">
         <v>71</v>
       </c>
@@ -2308,8 +2289,8 @@
       <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -2319,8 +2300,8 @@
       <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -2330,123 +2311,118 @@
       <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="64" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="64" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2463,6 +2439,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2986,7 +2967,7 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:O11"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3001,7 +2982,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
@@ -3018,51 +2999,51 @@
       <c r="O1" s="82"/>
     </row>
     <row r="2" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+    </row>
+    <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-    </row>
-    <row r="3" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="147" t="s">
+      <c r="C3" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="D3" s="139"/>
+      <c r="E3" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="151"/>
+      <c r="O3" s="143"/>
     </row>
     <row r="4" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="140"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="58" t="s">
         <v>124</v>
       </c>
@@ -3088,10 +3069,10 @@
         <v>4</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="N4" s="150"/>
-      <c r="O4" s="139"/>
+        <v>130</v>
+      </c>
+      <c r="N4" s="142"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57"/>
@@ -3106,8 +3087,8 @@
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="139"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="144"/>
     </row>
     <row r="6" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
@@ -3122,8 +3103,8 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="139"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="144"/>
     </row>
     <row r="7" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
@@ -3138,14 +3119,14 @@
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="139"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="144"/>
     </row>
     <row r="8" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="140" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="137"/>
+      <c r="B8" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="140"/>
       <c r="D8" s="60"/>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
@@ -3156,74 +3137,74 @@
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="139"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="144"/>
     </row>
     <row r="9" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="137" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="138" t="s">
+      <c r="O9" s="144"/>
+    </row>
+    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="139"/>
-    </row>
-    <row r="10" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="141" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="149"/>
+    </row>
+    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="146"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="143" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="144"/>
-    </row>
-    <row r="11" spans="2:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="141"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="138" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="139"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="144"/>
     </row>
     <row r="12" spans="2:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="142"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="56"/>
       <c r="D12" s="93" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
@@ -3235,18 +3216,10 @@
       <c r="L12" s="93"/>
       <c r="M12" s="93"/>
       <c r="N12" s="93"/>
-      <c r="O12" s="145"/>
+      <c r="O12" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="O3:O8"/>
+  <mergeCells count="16">
     <mergeCell ref="D9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="B8:C8"/>
@@ -3254,8 +3227,17 @@
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="D12:O12"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="N3:N8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.4" right="0.26" top="0.2" bottom="0.15000000000000002" header="0.2" footer="0.17000000000000004"/>
   <pageSetup paperSize="28" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
@@ -3964,207 +3946,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115" t="s">
+      <c r="G3" s="111"/>
+      <c r="H3" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="115"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="112" t="s">
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="114"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="118"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="123"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="124"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="F7:G7"/>
@@ -4181,6 +4150,19 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4369,17 +4351,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
@@ -4389,6 +4360,17 @@
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,26 +4397,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4442,14 +4424,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4457,14 +4439,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4472,14 +4454,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4487,14 +4469,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4502,32 +4484,27 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4535,6 +4512,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4562,26 +4544,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4589,14 +4571,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4604,14 +4586,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4619,14 +4601,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4634,14 +4616,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4649,52 +4631,47 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
@@ -4706,6 +4683,11 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
